--- a/Reports/Lights/conveyor length.xlsx
+++ b/Reports/Lights/conveyor length.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1773F-6FA9-4001-A77F-BCDD4B11B94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C236EB-4A42-40BA-AC67-E97AC33A0855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LED required" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
   <si>
     <t>CV C2</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>LIGHTING SURVEY</t>
+  </si>
+  <si>
+    <t>110W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -447,11 +459,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,6 +563,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -525,6 +578,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,598 +956,616 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="T1" t="s">
+      <c r="O1" s="3"/>
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>270</v>
-      </c>
-      <c r="C3" s="22">
-        <f>B3*3/U1</f>
-        <v>101.25</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>270</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="24">
+        <f>B4*3/V1</f>
+        <v>101.25</v>
+      </c>
+      <c r="D4" s="31">
+        <v>55</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8</v>
+      </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>270</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="2">
         <v>24</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>150</v>
-      </c>
-      <c r="C5" s="22">
-        <f>B5*3/U1</f>
-        <v>56.25</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>150</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="24">
+        <f>B6*3/V1</f>
+        <v>56.25</v>
+      </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>190</v>
-      </c>
-      <c r="C7" s="22">
-        <f>B7*2/U1</f>
-        <v>47.5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C7" s="24"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2">
         <v>16</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>190</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="24">
+        <f>B8*2/V1</f>
+        <v>47.5</v>
+      </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2">
+        <v>16</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>200</v>
-      </c>
-      <c r="C9" s="22">
-        <f>B9*3/U1</f>
-        <v>75</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>200</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="24">
+        <f>B10*3/V1</f>
+        <v>75</v>
+      </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>320</v>
-      </c>
-      <c r="C11" s="22">
-        <f>B11*3/U1</f>
-        <v>120</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C11" s="24"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>320</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="24">
+        <f>B12*3/V1</f>
+        <v>120</v>
+      </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" ref="C13:C23" si="0">B13*2/$U$1</f>
-        <v>5</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:C24" si="0">B14*2/$V$1</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="11">
+      <c r="O14" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
         <v>215</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>53.75</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>6</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="11">
+      <c r="O15" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>100</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="2">
-        <v>4</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>140</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>67.5</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>300</v>
@@ -1482,143 +1575,156 @@
         <v>75</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2">
         <v>2</v>
       </c>
-      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="2"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="2">
-        <v>14</v>
-      </c>
-      <c r="J24" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>170</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="2">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="2">
+        <v>14</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1626,19 +1732,20 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="2">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="2">
+        <v>30</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1646,19 +1753,20 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="2">
-        <v>4</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1666,19 +1774,20 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4</v>
-      </c>
-      <c r="J28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1686,19 +1795,20 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4</v>
-      </c>
-      <c r="J29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="2"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1706,19 +1816,20 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1726,19 +1837,20 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4</v>
-      </c>
-      <c r="J31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1746,19 +1858,20 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="2">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1766,19 +1879,20 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4</v>
-      </c>
-      <c r="J33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1786,19 +1900,20 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="2">
-        <v>4</v>
-      </c>
-      <c r="J34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1806,19 +1921,20 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="2">
-        <v>4</v>
-      </c>
-      <c r="J35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1826,19 +1942,20 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="2">
-        <v>16</v>
-      </c>
-      <c r="J36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1846,54 +1963,83 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="2">
-        <v>40</v>
-      </c>
-      <c r="J37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="2">
+        <v>16</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="13">
-        <f>SUM(C3:C36)</f>
+      <c r="N37" s="2"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2">
+        <v>40</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="13">
+        <f>SUM(C4:C37)</f>
         <v>876.25</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <f>SUM(I3:I37)</f>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <f>SUM(J4:J38)</f>
         <v>334</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
-        <f>SUM(N3:N36)</f>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3">
+        <f>SUM(O4:O37)</f>
         <v>196</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="13">
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,12 +2063,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -1983,28 +2129,28 @@
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2020,21 +2166,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B98779B-8F61-45ED-AB9F-0E785CE1CC1E}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2044,29 +2191,31 @@
       <c r="C1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -2076,17 +2225,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33</v>
       </c>
@@ -2096,17 +2245,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -2116,17 +2265,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35</v>
       </c>
@@ -2136,17 +2285,17 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>36</v>
       </c>
@@ -2156,17 +2305,17 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2176,21 +2325,21 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
-        <f>J7*3/8</f>
+      <c r="E7" s="18">
+        <f>L7*3/8</f>
         <v>101.25</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2200,21 +2349,21 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
-        <f>J8*3/8</f>
+      <c r="E8" s="18">
+        <f>L8*3/8</f>
         <v>56.25</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2224,21 +2373,21 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="18">
-        <f>J9*2/8</f>
+      <c r="E9" s="18">
+        <f>L9*2/8</f>
         <v>47.5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -2248,17 +2397,17 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2268,17 +2417,17 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -2288,17 +2437,17 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -2308,17 +2457,17 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2328,17 +2477,17 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31</v>
       </c>
@@ -2348,17 +2497,20 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
@@ -2368,17 +2520,17 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
@@ -2388,17 +2540,17 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>49</v>
       </c>
@@ -2408,17 +2560,17 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>51</v>
       </c>
@@ -2428,17 +2580,17 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -2448,17 +2600,17 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58</v>
       </c>
@@ -2468,17 +2620,17 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>59</v>
       </c>
@@ -2488,17 +2640,17 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2508,21 +2660,21 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="18">
-        <f>J23*3/8</f>
+      <c r="E23" s="18">
+        <f>L23*3/8</f>
         <v>75</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2532,21 +2684,21 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="18">
-        <f>J24*3/8</f>
+      <c r="E24" s="18">
+        <f>L24*3/8</f>
         <v>120</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2556,17 +2708,17 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -2576,17 +2728,17 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>42</v>
       </c>
@@ -2596,17 +2748,17 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>52</v>
       </c>
@@ -2616,17 +2768,17 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
@@ -2636,17 +2788,17 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>40</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2656,21 +2808,21 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="18">
-        <f>J30*2/8</f>
+      <c r="E30" s="18">
+        <f>L30*2/8</f>
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -2680,21 +2832,21 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="18">
-        <f>J31*2/8</f>
+      <c r="E31" s="18">
+        <f>L31*2/8</f>
         <v>53.75</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2704,21 +2856,21 @@
       <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="18">
-        <f>J32*2/8</f>
+      <c r="E32" s="18">
+        <f>L32*2/8</f>
         <v>25</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2728,21 +2880,21 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="18">
-        <f>J33*2/8</f>
+      <c r="E33" s="18">
+        <f>L33*2/8</f>
         <v>35</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -2752,21 +2904,21 @@
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="18">
-        <f>J34*2/8</f>
+      <c r="E34" s="18">
+        <f>L34*2/8</f>
         <v>67.5</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2776,17 +2928,17 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -2796,17 +2948,17 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -2816,17 +2968,17 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25</v>
       </c>
@@ -2836,17 +2988,17 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26</v>
       </c>
@@ -2856,17 +3008,17 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2876,17 +3028,17 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2896,17 +3048,17 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2916,17 +3068,17 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2936,17 +3088,17 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54</v>
       </c>
@@ -2956,17 +3108,17 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>6</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2976,21 +3128,21 @@
       <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45" s="18">
-        <f t="shared" ref="D45:D50" si="0">J45*2/8</f>
+      <c r="E45" s="18">
+        <f t="shared" ref="E45:E50" si="0">L45*2/8</f>
         <v>50</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -3000,21 +3152,21 @@
       <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46" s="18">
+      <c r="E46" s="18">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -3024,21 +3176,21 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" s="18">
+      <c r="E47" s="18">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3048,21 +3200,21 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="18">
+      <c r="E48" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -3072,21 +3224,21 @@
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="18">
+      <c r="E49" s="18">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -3096,21 +3248,21 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" s="18">
+      <c r="E50" s="18">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>27</v>
       </c>
@@ -3120,17 +3272,17 @@
       <c r="C51">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>28</v>
       </c>
@@ -3140,17 +3292,17 @@
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>29</v>
       </c>
@@ -3160,17 +3312,17 @@
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
@@ -3180,17 +3332,17 @@
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>45</v>
       </c>
@@ -3200,17 +3352,17 @@
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>47</v>
       </c>
@@ -3220,17 +3372,17 @@
       <c r="C56">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>48</v>
       </c>
@@ -3240,17 +3392,17 @@
       <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -3260,17 +3412,17 @@
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>6</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>53</v>
       </c>
@@ -3280,17 +3432,17 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>
@@ -3300,17 +3452,17 @@
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>6</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -3320,17 +3472,17 @@
       <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3340,18 +3492,18 @@
       <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>40</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J62">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L62">
     <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3363,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390790A-4315-4915-8484-96851F9900AB}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,13 +3527,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
